--- a/tunggakan_kogol_0_jun22_mei23.xlsx
+++ b/tunggakan_kogol_0_jun22_mei23.xlsx
@@ -440,11 +440,35 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -578,13 +602,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,16 +626,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,19 +644,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -696,11 +720,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,1051 +1067,1052 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="23.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="12.8571428571429"/>
-    <col min="3" max="3" width="15.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="8.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="11.7142857142857" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="7.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>10149</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="5">
         <v>3813489555</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>6702</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>2424982520</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>10805</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>3226058285</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>8260</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>3590045618</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="7">
         <v>9007</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>3853234047</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>10351</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>3723516125</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="7">
         <v>6826</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>2679679836</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="7">
         <v>10821</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>3694121544</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="7">
         <v>8567</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>3510989847</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="7">
         <v>9106</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="7">
         <v>4199898123</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="7">
         <v>10058</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>3284620255</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="7">
         <v>6866</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="7">
         <v>2084677757</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="7">
         <v>10878</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="7">
         <v>2842597897</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="7">
         <v>8119</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="7">
         <v>2865938614</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="7">
         <v>9065</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="7">
         <v>3440956952</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="7">
         <v>9097</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="7">
         <v>3690931754</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="7">
         <v>6260</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="7">
         <v>2498656569</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="7">
         <v>9773</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="7">
         <v>3066107415</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="7">
         <v>7307</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="7">
         <v>3473977526</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="7">
         <v>7968</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="7">
         <v>3445609952</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s">
+      <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="7">
         <v>10050</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="7">
         <v>3775720331</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="7">
         <v>6749</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="7">
         <v>2323121366</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="s">
+      <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="7">
         <v>10752</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="7">
         <v>3154800841</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="s">
+      <c r="A25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="7">
         <v>8179</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="7">
         <v>3351255193</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="A26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="7">
         <v>8955</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="7">
         <v>3527088254</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="7">
         <v>9477</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="7">
         <v>3571239413</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="A28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="7">
         <v>6719</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="7">
         <v>2242742911</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="7">
         <v>10651</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="7">
         <v>3206412131</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" t="s">
+      <c r="A30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="7">
         <v>8241</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="7">
         <v>3535126592</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" t="s">
+      <c r="A31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="7">
         <v>8832</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="7">
         <v>3766064976</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="7">
         <v>10685</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="7">
         <v>4453021330</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" t="s">
+      <c r="A33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="7">
         <v>7512</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="7">
         <v>2707820624</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" t="s">
+      <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="7">
         <v>11926</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="7">
         <v>3798816834</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="A35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="7">
         <v>9024</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="7">
         <v>4094882904</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" t="s">
+      <c r="A36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="7">
         <v>9525</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="7">
         <v>4273974446</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" t="s">
+      <c r="A37" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="7">
         <v>10194</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="7">
         <v>3846181104</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" t="s">
+      <c r="A38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="7">
         <v>6828</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="7">
         <v>2452167472</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" t="s">
+      <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="7">
         <v>10696</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="7">
         <v>3377477169</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" t="s">
+      <c r="A40" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="7">
         <v>8167</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="7">
         <v>3387047409</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" t="s">
+      <c r="A41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="7">
         <v>8638</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="7">
         <v>3729206431</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" t="s">
+      <c r="A42" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="7">
         <v>9699</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="7">
         <v>3639694267</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" t="s">
+      <c r="A43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="7">
         <v>6656</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="7">
         <v>2411185649</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" t="s">
+      <c r="A44" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="7">
         <v>10503</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="7">
         <v>3351171283</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" t="s">
+      <c r="A45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="7">
         <v>7929</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="7">
         <v>3653992393</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" t="s">
+      <c r="A46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="7">
         <v>8380</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="7">
         <v>3843359591</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" t="s">
+      <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="7">
         <v>10534</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="7">
         <v>3740365019</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" t="s">
+      <c r="A48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="7">
         <v>7042</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="7">
         <v>2465832077</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" t="s">
+      <c r="A49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="7">
         <v>11300</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="7">
         <v>4243529429</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" t="s">
+      <c r="A50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="7">
         <v>8499</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="7">
         <v>3639260449</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" t="s">
+      <c r="A51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="7">
         <v>8856</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="7">
         <v>3942487030</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" t="s">
+      <c r="A52" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="7">
         <v>10712</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="7">
         <v>3637220456</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" t="s">
+      <c r="A53" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="7">
         <v>6856</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="7">
         <v>2225690632</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" t="s">
+      <c r="A54" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="7">
         <v>11017</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="7">
         <v>3298402240</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" t="s">
+      <c r="A55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="7">
         <v>8759</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="7">
         <v>3542810388</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" t="s">
+      <c r="A56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="7">
         <v>9534</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="7">
         <v>3827318118</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" t="s">
+      <c r="A57" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="7">
         <v>10297</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="7">
         <v>3571116892</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" t="s">
+      <c r="A58" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="7">
         <v>6721</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="7">
         <v>2566665781</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" t="s">
+      <c r="A59" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="7">
         <v>11394</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="7">
         <v>3450662594</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" t="s">
+      <c r="A60" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="7">
         <v>8330</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="7">
         <v>3472496719</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" t="s">
+      <c r="A61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="7">
         <v>9490</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="7">
         <v>4017559811</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="6">
         <v>2022</v>
       </c>
     </row>
